--- a/data/trans_bre/P08_2_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P08_2_R-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>10.42246789354612</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8.057251791809689</v>
+        <v>8.057251791809694</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4751948104804376</v>
@@ -649,7 +649,7 @@
         <v>0.6216950213095173</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.3185146250993698</v>
+        <v>0.3185146250993701</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.450909198896106</v>
+        <v>6.19211995248825</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.521008653949815</v>
+        <v>7.367489813618146</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.290848752309623</v>
+        <v>6.974731681148152</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.084106655328223</v>
+        <v>2.713462377699451</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2446786770309026</v>
+        <v>0.225125419567422</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4149846427792429</v>
+        <v>0.3905589470103534</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3952503601596401</v>
+        <v>0.3756814855144665</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.06963323500066425</v>
+        <v>0.0926640693808569</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.39324787087899</v>
+        <v>15.84156596237533</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.59278181989012</v>
+        <v>14.58977929472194</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.02606892122011</v>
+        <v>13.85641307818476</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.66262198314899</v>
+        <v>12.9962572257701</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7354742603207716</v>
+        <v>0.7547314377330814</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.989121866225435</v>
+        <v>0.9747863741460159</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9086691452136817</v>
+        <v>0.917323097337036</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5811104455243541</v>
+        <v>0.5987301654265124</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.083093494558694</v>
+        <v>3.504868689085958</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.597425727475507</v>
+        <v>7.179014973506962</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.00433644959014</v>
+        <v>3.670621952649739</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5.183961825343887</v>
+        <v>5.209036559255992</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1881425128447355</v>
+        <v>0.2049681620749643</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4014126255070617</v>
+        <v>0.3868698588605886</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2468102865360874</v>
+        <v>0.2230523376235469</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2662686500723885</v>
+        <v>0.2740808576385639</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.430841892895419</v>
+        <v>9.761436204893588</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>14.86111531377549</v>
+        <v>14.45636764521306</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10.90781434927792</v>
+        <v>11.01571481020974</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11.92830610068037</v>
+        <v>11.79311341820036</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7218898309746473</v>
+        <v>0.7300955349061138</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.035592299224398</v>
+        <v>1.000969838874626</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8492693963099924</v>
+        <v>0.8538342295669858</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7618960016493969</v>
+        <v>0.7761675804451333</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>9.936467230657216</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.027901291379107</v>
+        <v>7.02790129137911</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6755856912700863</v>
@@ -849,7 +849,7 @@
         <v>0.8677167683208704</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.613331374909232</v>
+        <v>0.6133313749092322</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.291023329054855</v>
+        <v>4.221018638314375</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.049522100923584</v>
+        <v>4.496680474968435</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.847269016468239</v>
+        <v>6.091628167491085</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.226472041297176</v>
+        <v>4.22767697372499</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3582110714529216</v>
+        <v>0.3658791086657008</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3131052095746717</v>
+        <v>0.2904906719945959</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4676100769397837</v>
+        <v>0.4820875690376178</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.3019319283365636</v>
+        <v>0.3357619133063222</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.30785539533739</v>
+        <v>10.45797332009259</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.54049864560224</v>
+        <v>12.23705934071687</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.81877824091865</v>
+        <v>14.05542369622421</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.506249126732442</v>
+        <v>9.705104769408983</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.068667893465201</v>
+        <v>1.133006685791996</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9929848015018806</v>
+        <v>0.9829795646193359</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.371756085618449</v>
+        <v>1.399836556459932</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.934917139314873</v>
+        <v>0.9860355682309151</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>1.017993231616523</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5.12749665429916</v>
+        <v>5.127496654299161</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8915674312255393</v>
@@ -949,7 +949,7 @@
         <v>0.07620193593246899</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4640491519697887</v>
+        <v>0.4640491519697889</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.657474881235626</v>
+        <v>2.195450373094235</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.94719195928612</v>
+        <v>2.536387170823138</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.757600771158802</v>
+        <v>-3.09120426741553</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.481164536361826</v>
+        <v>2.329147731523594</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2284254221503216</v>
+        <v>0.2346190486935308</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1872715165228641</v>
+        <v>0.1477897072943886</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2457297340929538</v>
+        <v>-0.2034929008284647</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1995430280259919</v>
+        <v>0.1888374423316521</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>10.17825992298359</v>
+        <v>10.47507100796809</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.64986095291151</v>
+        <v>12.65710338693427</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.641708177427763</v>
+        <v>5.982353071267775</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.043923817541227</v>
+        <v>7.612325573454242</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.172522646306896</v>
+        <v>2.114673126871586</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.14783819835907</v>
+        <v>1.180742193132418</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4874181644393381</v>
+        <v>0.5097277341865478</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8192025694776089</v>
+        <v>0.7941579915071523</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>8.327222869023512</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7.681909565021932</v>
+        <v>7.681909565021935</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6749562525800049</v>
@@ -1049,7 +1049,7 @@
         <v>0.5779628219510247</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.5109809133739274</v>
+        <v>0.5109809133739276</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.225947634638059</v>
+        <v>7.264765408889835</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.217540958664847</v>
+        <v>8.339479639265624</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.24741323383709</v>
+        <v>6.656388938950301</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.122314520363856</v>
+        <v>6.142187220240466</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4881659061226979</v>
+        <v>0.4947858245622325</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5073914053721574</v>
+        <v>0.509725138666526</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4088202586444689</v>
+        <v>0.4247484377526727</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3874242860147933</v>
+        <v>0.3806456515359321</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.94978091627066</v>
+        <v>11.20250389723383</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.26489477142901</v>
+        <v>12.15088331481371</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.29163136547734</v>
+        <v>10.25494140977415</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.315647038251873</v>
+        <v>9.361124409209648</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8482895724774814</v>
+        <v>0.8599683828582677</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8606625899456445</v>
+        <v>0.8365560549035734</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7653951591958651</v>
+        <v>0.7607971747350097</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.663150812869844</v>
+        <v>0.6553143899352823</v>
       </c>
     </row>
     <row r="19">
